--- a/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="304">
   <si>
     <t>Other</t>
   </si>
@@ -895,6 +895,48 @@
   </si>
   <si>
     <t>prodEjIU</t>
+  </si>
+  <si>
+    <t>prodVCFD</t>
+  </si>
+  <si>
+    <t>prodbwCv</t>
+  </si>
+  <si>
+    <t>prodHUYw</t>
+  </si>
+  <si>
+    <t>prodpPzl</t>
+  </si>
+  <si>
+    <t>prodBUbf</t>
+  </si>
+  <si>
+    <t>prodAaRu</t>
+  </si>
+  <si>
+    <t>prodWQZX</t>
+  </si>
+  <si>
+    <t>prodXnkS</t>
+  </si>
+  <si>
+    <t>prodhaDu</t>
+  </si>
+  <si>
+    <t>prodIgzx</t>
+  </si>
+  <si>
+    <t>prodHIro</t>
+  </si>
+  <si>
+    <t>prodRJUG</t>
+  </si>
+  <si>
+    <t>prodCapr</t>
+  </si>
+  <si>
+    <t>prodcoCw</t>
   </si>
 </sst>
 </file>
@@ -925,7 +967,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="500">
+  <fills count="528">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3422,8 +3464,148 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="504">
+  <borders count="532">
     <border>
       <left/>
       <right/>
@@ -5340,11 +5522,109 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="283">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -5641,7 +5921,21 @@
     <xf applyBorder="true" applyFill="true" borderId="497" fillId="493" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="499" fillId="495" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="501" fillId="497" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="499" borderId="503" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="503" fillId="499" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="505" fillId="501" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="507" fillId="503" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="509" fillId="505" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="511" fillId="507" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="513" fillId="509" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="515" fillId="511" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="517" fillId="513" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="519" fillId="515" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="521" fillId="517" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="523" fillId="519" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="525" fillId="521" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="527" fillId="523" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="529" fillId="525" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="527" borderId="531" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -6011,8 +6305,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="268" t="s">
-        <v>289</v>
+      <c r="B2" s="282" t="s">
+        <v>303</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -6049,8 +6343,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="263" t="s">
-        <v>284</v>
+      <c r="B3" s="269" t="s">
+        <v>290</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -6097,8 +6391,8 @@
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="226" t="s">
-        <v>247</v>
+      <c r="B4" s="279" t="s">
+        <v>300</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -6143,8 +6437,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="264" t="s">
-        <v>285</v>
+      <c r="B5" s="270" t="s">
+        <v>291</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>
@@ -6199,8 +6493,8 @@
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="227" t="s">
-        <v>248</v>
+      <c r="B6" s="280" t="s">
+        <v>301</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -6245,8 +6539,8 @@
       <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="228" t="s">
-        <v>249</v>
+      <c r="B7" s="281" t="s">
+        <v>302</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>17</v>

--- a/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="310">
   <si>
     <t>Other</t>
   </si>
@@ -937,6 +937,24 @@
   </si>
   <si>
     <t>prodcoCw</t>
+  </si>
+  <si>
+    <t>proddjNn</t>
+  </si>
+  <si>
+    <t>prodLCHk</t>
+  </si>
+  <si>
+    <t>prodMyME</t>
+  </si>
+  <si>
+    <t>prodvJzG</t>
+  </si>
+  <si>
+    <t>prodHMEM</t>
+  </si>
+  <si>
+    <t>prodUIYs</t>
   </si>
 </sst>
 </file>
@@ -967,7 +985,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="528">
+  <fills count="540">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3604,8 +3622,68 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="532">
+  <borders count="544">
     <border>
       <left/>
       <right/>
@@ -5620,11 +5698,53 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="289">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -5935,7 +6055,13 @@
     <xf applyBorder="true" applyFill="true" borderId="525" fillId="521" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="527" fillId="523" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="529" fillId="525" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="527" borderId="531" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="531" fillId="527" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="533" fillId="529" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="535" fillId="531" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="537" fillId="533" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="539" fillId="535" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="541" fillId="537" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="539" borderId="543" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -6305,8 +6431,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="282" t="s">
-        <v>303</v>
+      <c r="B2" s="288" t="s">
+        <v>309</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -6343,8 +6469,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="269" t="s">
-        <v>290</v>
+      <c r="B3" s="283" t="s">
+        <v>304</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -6437,8 +6563,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="270" t="s">
-        <v>291</v>
+      <c r="B5" s="284" t="s">
+        <v>305</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>

--- a/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="314">
   <si>
     <t>Other</t>
   </si>
@@ -939,22 +939,34 @@
     <t>prodcoCw</t>
   </si>
   <si>
-    <t>proddjNn</t>
-  </si>
-  <si>
-    <t>prodLCHk</t>
-  </si>
-  <si>
-    <t>prodMyME</t>
-  </si>
-  <si>
-    <t>prodvJzG</t>
-  </si>
-  <si>
-    <t>prodHMEM</t>
-  </si>
-  <si>
-    <t>prodUIYs</t>
+    <t>prodlfRj</t>
+  </si>
+  <si>
+    <t>prodVfEo</t>
+  </si>
+  <si>
+    <t>prodZvoA</t>
+  </si>
+  <si>
+    <t>prodfRUK</t>
+  </si>
+  <si>
+    <t>prodtjfc</t>
+  </si>
+  <si>
+    <t>prodBMIh</t>
+  </si>
+  <si>
+    <t>prodUHkc</t>
+  </si>
+  <si>
+    <t>prodtLdr</t>
+  </si>
+  <si>
+    <t>prodyVIP</t>
+  </si>
+  <si>
+    <t>prodRuXj</t>
   </si>
 </sst>
 </file>
@@ -985,7 +997,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="540">
+  <fills count="548">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3682,8 +3694,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="544">
+  <borders count="552">
     <border>
       <left/>
       <right/>
@@ -5740,11 +5792,39 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="293">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -6061,7 +6141,11 @@
     <xf applyBorder="true" applyFill="true" borderId="537" fillId="533" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="539" fillId="535" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="541" fillId="537" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="539" borderId="543" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="543" fillId="539" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="545" fillId="541" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="547" fillId="543" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="549" fillId="545" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="547" borderId="551" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -6431,8 +6515,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="288" t="s">
-        <v>309</v>
+      <c r="B2" s="292" t="s">
+        <v>313</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -6469,8 +6553,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="283" t="s">
-        <v>304</v>
+      <c r="B3" s="269" t="s">
+        <v>290</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -6517,8 +6601,8 @@
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="279" t="s">
-        <v>300</v>
+      <c r="B4" s="289" t="s">
+        <v>310</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -6563,8 +6647,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="284" t="s">
-        <v>305</v>
+      <c r="B5" s="270" t="s">
+        <v>291</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>
@@ -6619,8 +6703,8 @@
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="280" t="s">
-        <v>301</v>
+      <c r="B6" s="290" t="s">
+        <v>311</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -6665,8 +6749,8 @@
       <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="281" t="s">
-        <v>302</v>
+      <c r="B7" s="291" t="s">
+        <v>312</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>17</v>

--- a/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="315">
   <si>
     <t>Other</t>
   </si>
@@ -967,6 +967,9 @@
   </si>
   <si>
     <t>prodRuXj</t>
+  </si>
+  <si>
+    <t>prodVwWf</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1000,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="548">
+  <fills count="550">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3734,8 +3737,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="552">
+  <borders count="554">
     <border>
       <left/>
       <right/>
@@ -5820,11 +5833,18 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="294">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -6145,7 +6165,8 @@
     <xf applyBorder="true" applyFill="true" borderId="545" fillId="541" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="547" fillId="543" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="549" fillId="545" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="547" borderId="551" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="551" fillId="547" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="549" borderId="553" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -6515,8 +6536,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="292" t="s">
-        <v>313</v>
+      <c r="B2" s="293" t="s">
+        <v>314</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>

--- a/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="338">
   <si>
     <t>Other</t>
   </si>
@@ -970,6 +970,75 @@
   </si>
   <si>
     <t>prodVwWf</t>
+  </si>
+  <si>
+    <t>prodKxNT</t>
+  </si>
+  <si>
+    <t>prodruTn</t>
+  </si>
+  <si>
+    <t>prodgIId</t>
+  </si>
+  <si>
+    <t>prodEEUY</t>
+  </si>
+  <si>
+    <t>prodUBBe</t>
+  </si>
+  <si>
+    <t>prodlOlU</t>
+  </si>
+  <si>
+    <t>prodoGwY</t>
+  </si>
+  <si>
+    <t>prodbCMK</t>
+  </si>
+  <si>
+    <t>prodzzod</t>
+  </si>
+  <si>
+    <t>prodWrZk</t>
+  </si>
+  <si>
+    <t>prodsqnG</t>
+  </si>
+  <si>
+    <t>prodfYAe</t>
+  </si>
+  <si>
+    <t>prodgyDO</t>
+  </si>
+  <si>
+    <t>prodUDld</t>
+  </si>
+  <si>
+    <t>prodCAdM</t>
+  </si>
+  <si>
+    <t>prodehFv</t>
+  </si>
+  <si>
+    <t>prodteyO</t>
+  </si>
+  <si>
+    <t>prodfNLA</t>
+  </si>
+  <si>
+    <t>prodxSSX</t>
+  </si>
+  <si>
+    <t>prodcgdo</t>
+  </si>
+  <si>
+    <t>prodqYrc</t>
+  </si>
+  <si>
+    <t>prodVGZT</t>
+  </si>
+  <si>
+    <t>prodhUwz</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1069,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="550">
+  <fills count="596">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3747,8 +3816,238 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="554">
+  <borders count="600">
     <border>
       <left/>
       <right/>
@@ -5840,11 +6139,172 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="317">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -6166,7 +6626,30 @@
     <xf applyBorder="true" applyFill="true" borderId="547" fillId="543" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="549" fillId="545" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="551" fillId="547" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="549" borderId="553" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="553" fillId="549" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="555" fillId="551" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="557" fillId="553" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="559" fillId="555" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="561" fillId="557" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="563" fillId="559" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="565" fillId="561" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="567" fillId="563" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="569" fillId="565" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="571" fillId="567" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="573" fillId="569" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="575" fillId="571" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="577" fillId="573" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="579" fillId="575" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="581" fillId="577" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="583" fillId="579" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="585" fillId="581" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="587" fillId="583" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="589" fillId="585" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="591" fillId="587" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="593" fillId="589" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="595" fillId="591" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="597" fillId="593" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="595" borderId="599" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -6536,8 +7019,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="293" t="s">
-        <v>314</v>
+      <c r="B2" s="316" t="s">
+        <v>337</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -6574,8 +7057,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="269" t="s">
-        <v>290</v>
+      <c r="B3" s="306" t="s">
+        <v>327</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -6668,8 +7151,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="270" t="s">
-        <v>291</v>
+      <c r="B5" s="307" t="s">
+        <v>328</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>

--- a/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="344">
   <si>
     <t>Other</t>
   </si>
@@ -1039,6 +1039,24 @@
   </si>
   <si>
     <t>prodhUwz</t>
+  </si>
+  <si>
+    <t>prodXTCt</t>
+  </si>
+  <si>
+    <t>prodJWne</t>
+  </si>
+  <si>
+    <t>prodZLXo</t>
+  </si>
+  <si>
+    <t>prodFDok</t>
+  </si>
+  <si>
+    <t>prodplVC</t>
+  </si>
+  <si>
+    <t>prodQPJL</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1087,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="596">
+  <fills count="608">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4046,8 +4064,68 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="600">
+  <borders count="612">
     <border>
       <left/>
       <right/>
@@ -6300,11 +6378,53 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="323">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -6649,7 +6769,13 @@
     <xf applyBorder="true" applyFill="true" borderId="593" fillId="589" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="595" fillId="591" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="597" fillId="593" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="595" borderId="599" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="599" fillId="595" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="601" fillId="597" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="603" fillId="599" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="605" fillId="601" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="607" fillId="603" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="609" fillId="605" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="607" borderId="611" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -7019,8 +7145,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="316" t="s">
-        <v>337</v>
+      <c r="B2" s="322" t="s">
+        <v>343</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -7057,8 +7183,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="306" t="s">
-        <v>327</v>
+      <c r="B3" s="317" t="s">
+        <v>338</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -7151,8 +7277,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="307" t="s">
-        <v>328</v>
+      <c r="B5" s="318" t="s">
+        <v>339</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>

--- a/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="360">
   <si>
     <t>Other</t>
   </si>
@@ -1057,6 +1057,54 @@
   </si>
   <si>
     <t>prodQPJL</t>
+  </si>
+  <si>
+    <t>prodJTyi</t>
+  </si>
+  <si>
+    <t>prodjBMF</t>
+  </si>
+  <si>
+    <t>prodxtZs</t>
+  </si>
+  <si>
+    <t>prodpGtu</t>
+  </si>
+  <si>
+    <t>prodtnWT</t>
+  </si>
+  <si>
+    <t>prodItJB</t>
+  </si>
+  <si>
+    <t>prodRqgZ</t>
+  </si>
+  <si>
+    <t>prodZwOc</t>
+  </si>
+  <si>
+    <t>prodcIya</t>
+  </si>
+  <si>
+    <t>prodXMEJ</t>
+  </si>
+  <si>
+    <t>prodKvHI</t>
+  </si>
+  <si>
+    <t>prodFWlv</t>
+  </si>
+  <si>
+    <t>prodbGIP</t>
+  </si>
+  <si>
+    <t>prodJLRx</t>
+  </si>
+  <si>
+    <t>prodNCCF</t>
+  </si>
+  <si>
+    <t>prodBaYp</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="608">
+  <fills count="640">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4124,8 +4172,168 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="612">
+  <borders count="644">
     <border>
       <left/>
       <right/>
@@ -6420,11 +6628,123 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="339">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -6775,7 +7095,23 @@
     <xf applyBorder="true" applyFill="true" borderId="605" fillId="601" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="607" fillId="603" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="609" fillId="605" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="607" borderId="611" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="611" fillId="607" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="613" fillId="609" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="615" fillId="611" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="617" fillId="613" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="619" fillId="615" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="621" fillId="617" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="623" fillId="619" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="625" fillId="621" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="627" fillId="623" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="629" fillId="625" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="631" fillId="627" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="633" fillId="629" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="635" fillId="631" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="637" fillId="633" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="639" fillId="635" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="641" fillId="637" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="639" borderId="643" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -7145,8 +7481,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="322" t="s">
-        <v>343</v>
+      <c r="B2" s="338" t="s">
+        <v>359</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -7183,8 +7519,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="317" t="s">
-        <v>338</v>
+      <c r="B3" s="333" t="s">
+        <v>354</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -7277,8 +7613,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="318" t="s">
-        <v>339</v>
+      <c r="B5" s="334" t="s">
+        <v>355</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>

--- a/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="349">
   <si>
     <t>Other</t>
   </si>
@@ -1057,6 +1057,21 @@
   </si>
   <si>
     <t>prodQPJL</t>
+  </si>
+  <si>
+    <t>prodAqMM</t>
+  </si>
+  <si>
+    <t>prodAOuF</t>
+  </si>
+  <si>
+    <t>prodUTWN</t>
+  </si>
+  <si>
+    <t>prodcqxY</t>
+  </si>
+  <si>
+    <t>prodbBde</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="608">
+  <fills count="618">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4124,8 +4139,58 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="612">
+  <borders count="622">
     <border>
       <left/>
       <right/>
@@ -6420,11 +6485,46 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="328">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -6775,7 +6875,12 @@
     <xf applyBorder="true" applyFill="true" borderId="605" fillId="601" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="607" fillId="603" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="609" fillId="605" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="607" borderId="611" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="611" fillId="607" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="613" fillId="609" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="615" fillId="611" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="617" fillId="613" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="619" fillId="615" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="617" borderId="621" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -7145,8 +7250,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="322" t="s">
-        <v>343</v>
+      <c r="B2" s="327" t="s">
+        <v>348</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>

--- a/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="354">
   <si>
     <t>Other</t>
   </si>
@@ -1072,6 +1072,21 @@
   </si>
   <si>
     <t>prodbBde</t>
+  </si>
+  <si>
+    <t>prodBbMI</t>
+  </si>
+  <si>
+    <t>prodelbZ</t>
+  </si>
+  <si>
+    <t>prodYYOK</t>
+  </si>
+  <si>
+    <t>prodNRBS</t>
+  </si>
+  <si>
+    <t>prodBdHa</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="618">
+  <fills count="628">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4189,8 +4204,58 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="622">
+  <borders count="632">
     <border>
       <left/>
       <right/>
@@ -6520,11 +6585,46 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="328">
+  <cellXfs count="333">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -6880,7 +6980,12 @@
     <xf applyBorder="true" applyFill="true" borderId="615" fillId="611" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="617" fillId="613" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="619" fillId="615" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="617" borderId="621" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="621" fillId="617" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="623" fillId="619" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="625" fillId="621" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="627" fillId="623" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="629" fillId="625" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="627" borderId="631" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -7250,8 +7355,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="327" t="s">
-        <v>348</v>
+      <c r="B2" s="332" t="s">
+        <v>353</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>

--- a/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="359">
   <si>
     <t>Other</t>
   </si>
@@ -1087,6 +1087,21 @@
   </si>
   <si>
     <t>prodBdHa</t>
+  </si>
+  <si>
+    <t>proddQtA</t>
+  </si>
+  <si>
+    <t>prodJohE</t>
+  </si>
+  <si>
+    <t>prodeEIl</t>
+  </si>
+  <si>
+    <t>prodsRZJ</t>
+  </si>
+  <si>
+    <t>prodnIUh</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="628">
+  <fills count="638">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4254,8 +4269,58 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="632">
+  <borders count="642">
     <border>
       <left/>
       <right/>
@@ -6620,11 +6685,46 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="338">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -6985,7 +7085,12 @@
     <xf applyBorder="true" applyFill="true" borderId="625" fillId="621" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="627" fillId="623" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="629" fillId="625" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="627" borderId="631" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="631" fillId="627" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="633" fillId="629" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="635" fillId="631" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="637" fillId="633" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="639" fillId="635" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="637" borderId="641" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -7355,8 +7460,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="332" t="s">
-        <v>353</v>
+      <c r="B2" s="337" t="s">
+        <v>358</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -7441,8 +7546,8 @@
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="289" t="s">
-        <v>310</v>
+      <c r="B4" s="334" t="s">
+        <v>355</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -7543,8 +7648,8 @@
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="290" t="s">
-        <v>311</v>
+      <c r="B6" s="335" t="s">
+        <v>356</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -7589,8 +7694,8 @@
       <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="291" t="s">
-        <v>312</v>
+      <c r="B7" s="336" t="s">
+        <v>357</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>17</v>

--- a/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="370">
   <si>
     <t>Other</t>
   </si>
@@ -1102,6 +1102,39 @@
   </si>
   <si>
     <t>prodnIUh</t>
+  </si>
+  <si>
+    <t>prodjpXQ</t>
+  </si>
+  <si>
+    <t>prodkQZG</t>
+  </si>
+  <si>
+    <t>prodLYVr</t>
+  </si>
+  <si>
+    <t>prodpdnH</t>
+  </si>
+  <si>
+    <t>prodxGMo</t>
+  </si>
+  <si>
+    <t>prodysak</t>
+  </si>
+  <si>
+    <t>prodoUvS</t>
+  </si>
+  <si>
+    <t>prodUyXJ</t>
+  </si>
+  <si>
+    <t>prodHSCV</t>
+  </si>
+  <si>
+    <t>prodIMpO</t>
+  </si>
+  <si>
+    <t>prodIfXf</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="638">
+  <fills count="660">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4319,8 +4352,118 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="642">
+  <borders count="664">
     <border>
       <left/>
       <right/>
@@ -6720,11 +6863,88 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="349">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -7090,7 +7310,18 @@
     <xf applyBorder="true" applyFill="true" borderId="635" fillId="631" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="637" fillId="633" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="639" fillId="635" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="637" borderId="641" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="641" fillId="637" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="643" fillId="639" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="645" fillId="641" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="647" fillId="643" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="649" fillId="645" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="651" fillId="647" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="653" fillId="649" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="655" fillId="651" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="657" fillId="653" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="659" fillId="655" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="661" fillId="657" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="659" borderId="663" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -7460,8 +7691,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="337" t="s">
-        <v>358</v>
+      <c r="B2" s="348" t="s">
+        <v>369</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -7498,8 +7729,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="317" t="s">
-        <v>338</v>
+      <c r="B3" s="343" t="s">
+        <v>364</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -7592,8 +7823,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="318" t="s">
-        <v>339</v>
+      <c r="B5" s="344" t="s">
+        <v>365</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>

--- a/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="380">
   <si>
     <t>Other</t>
   </si>
@@ -1135,6 +1135,36 @@
   </si>
   <si>
     <t>prodIfXf</t>
+  </si>
+  <si>
+    <t>prodwDCe</t>
+  </si>
+  <si>
+    <t>proddbyu</t>
+  </si>
+  <si>
+    <t>prodkiZT</t>
+  </si>
+  <si>
+    <t>prodYrxj</t>
+  </si>
+  <si>
+    <t>prodUnCx</t>
+  </si>
+  <si>
+    <t>prodqZYn</t>
+  </si>
+  <si>
+    <t>prodClbw</t>
+  </si>
+  <si>
+    <t>prodFeJw</t>
+  </si>
+  <si>
+    <t>prodEbBW</t>
+  </si>
+  <si>
+    <t>prodEsCE</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="660">
+  <fills count="680">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4462,8 +4492,108 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="664">
+  <borders count="684">
     <border>
       <left/>
       <right/>
@@ -6940,11 +7070,81 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="359">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -7321,7 +7521,17 @@
     <xf applyBorder="true" applyFill="true" borderId="657" fillId="653" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="659" fillId="655" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="661" fillId="657" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="659" borderId="663" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="663" fillId="659" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="665" fillId="661" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="667" fillId="663" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="669" fillId="665" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="671" fillId="667" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="673" fillId="669" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="675" fillId="671" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="677" fillId="673" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="679" fillId="675" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="681" fillId="677" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="679" borderId="683" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -7691,8 +7901,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="348" t="s">
-        <v>369</v>
+      <c r="B2" s="358" t="s">
+        <v>379</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -7729,8 +7939,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="343" t="s">
-        <v>364</v>
+      <c r="B3" s="355" t="s">
+        <v>376</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -7823,8 +8033,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="344" t="s">
-        <v>365</v>
+      <c r="B5" s="356" t="s">
+        <v>377</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>

--- a/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="402">
   <si>
     <t>Other</t>
   </si>
@@ -1165,6 +1165,72 @@
   </si>
   <si>
     <t>prodEsCE</t>
+  </si>
+  <si>
+    <t>prodqCgB</t>
+  </si>
+  <si>
+    <t>prodseXX</t>
+  </si>
+  <si>
+    <t>prodCwCV</t>
+  </si>
+  <si>
+    <t>prodxbxD</t>
+  </si>
+  <si>
+    <t>prodXpMo</t>
+  </si>
+  <si>
+    <t>prodTvOH</t>
+  </si>
+  <si>
+    <t>prodkpoY</t>
+  </si>
+  <si>
+    <t>prodREdx</t>
+  </si>
+  <si>
+    <t>prodtGcn</t>
+  </si>
+  <si>
+    <t>prodqfrN</t>
+  </si>
+  <si>
+    <t>prodQLUD</t>
+  </si>
+  <si>
+    <t>prodGSsZ</t>
+  </si>
+  <si>
+    <t>prodEqoe</t>
+  </si>
+  <si>
+    <t>prodnYDt</t>
+  </si>
+  <si>
+    <t>prodJVTb</t>
+  </si>
+  <si>
+    <t>prodbybK</t>
+  </si>
+  <si>
+    <t>prodwFVT</t>
+  </si>
+  <si>
+    <t>prodtllV</t>
+  </si>
+  <si>
+    <t>prodyBGc</t>
+  </si>
+  <si>
+    <t>prodtopW</t>
+  </si>
+  <si>
+    <t>prodTWHc</t>
+  </si>
+  <si>
+    <t>prodWJtj</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="680">
+  <fills count="724">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4592,8 +4658,228 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="684">
+  <borders count="728">
     <border>
       <left/>
       <right/>
@@ -7140,11 +7426,165 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="359">
+  <cellXfs count="381">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -7531,7 +7971,29 @@
     <xf applyBorder="true" applyFill="true" borderId="677" fillId="673" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="679" fillId="675" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="681" fillId="677" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="679" borderId="683" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="683" fillId="679" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="685" fillId="681" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="687" fillId="683" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="689" fillId="685" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="691" fillId="687" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="693" fillId="689" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="695" fillId="691" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="697" fillId="693" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="699" fillId="695" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="701" fillId="697" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="703" fillId="699" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="705" fillId="701" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="707" fillId="703" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="709" fillId="705" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="711" fillId="707" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="713" fillId="709" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="715" fillId="711" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="717" fillId="713" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="719" fillId="715" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="721" fillId="717" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="723" fillId="719" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="725" fillId="721" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="723" borderId="727" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -7901,8 +8363,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="358" t="s">
-        <v>379</v>
+      <c r="B2" s="380" t="s">
+        <v>401</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -7939,8 +8401,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="355" t="s">
-        <v>376</v>
+      <c r="B3" s="376" t="s">
+        <v>397</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -8033,8 +8495,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="356" t="s">
-        <v>377</v>
+      <c r="B5" s="377" t="s">
+        <v>398</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>

--- a/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="438">
   <si>
     <t>Other</t>
   </si>
@@ -1231,6 +1231,114 @@
   </si>
   <si>
     <t>prodWJtj</t>
+  </si>
+  <si>
+    <t>prodqFRR</t>
+  </si>
+  <si>
+    <t>prodfInr</t>
+  </si>
+  <si>
+    <t>prodjAca</t>
+  </si>
+  <si>
+    <t>prodwCvQ</t>
+  </si>
+  <si>
+    <t>prodjqLa</t>
+  </si>
+  <si>
+    <t>prodlGYk</t>
+  </si>
+  <si>
+    <t>prodldqd</t>
+  </si>
+  <si>
+    <t>prodBSwT</t>
+  </si>
+  <si>
+    <t>prodgqGp</t>
+  </si>
+  <si>
+    <t>prodPhMy</t>
+  </si>
+  <si>
+    <t>prodvGqd</t>
+  </si>
+  <si>
+    <t>prodyfQN</t>
+  </si>
+  <si>
+    <t>prodtPNr</t>
+  </si>
+  <si>
+    <t>prodjBEC</t>
+  </si>
+  <si>
+    <t>prodejkc</t>
+  </si>
+  <si>
+    <t>prodWouJ</t>
+  </si>
+  <si>
+    <t>prodWpPI</t>
+  </si>
+  <si>
+    <t>prodJyMk</t>
+  </si>
+  <si>
+    <t>prodZgIq</t>
+  </si>
+  <si>
+    <t>prodNYKK</t>
+  </si>
+  <si>
+    <t>prodiqAq</t>
+  </si>
+  <si>
+    <t>prodWWPs</t>
+  </si>
+  <si>
+    <t>prodMNDj</t>
+  </si>
+  <si>
+    <t>prodkrpH</t>
+  </si>
+  <si>
+    <t>prodsfLs</t>
+  </si>
+  <si>
+    <t>prodjwcj</t>
+  </si>
+  <si>
+    <t>prodQIvr</t>
+  </si>
+  <si>
+    <t>prodpdyA</t>
+  </si>
+  <si>
+    <t>prodhkvV</t>
+  </si>
+  <si>
+    <t>prodUpeY</t>
+  </si>
+  <si>
+    <t>prodlKLM</t>
+  </si>
+  <si>
+    <t>prodicfA</t>
+  </si>
+  <si>
+    <t>prodgFDI</t>
+  </si>
+  <si>
+    <t>prodwmQD</t>
+  </si>
+  <si>
+    <t>prodogFu</t>
+  </si>
+  <si>
+    <t>prodoilI</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1369,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="724">
+  <fills count="796">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4878,8 +4986,368 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="728">
+  <borders count="800">
     <border>
       <left/>
       <right/>
@@ -7580,11 +8048,263 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="381">
+  <cellXfs count="417">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -7993,7 +8713,43 @@
     <xf applyBorder="true" applyFill="true" borderId="721" fillId="717" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="723" fillId="719" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="725" fillId="721" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="723" borderId="727" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="727" fillId="723" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="729" fillId="725" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="731" fillId="727" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="733" fillId="729" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="735" fillId="731" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="737" fillId="733" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="739" fillId="735" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="741" fillId="737" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="743" fillId="739" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="745" fillId="741" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="747" fillId="743" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="749" fillId="745" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="751" fillId="747" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="753" fillId="749" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="755" fillId="751" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="757" fillId="753" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="759" fillId="755" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="761" fillId="757" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="763" fillId="759" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="765" fillId="761" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="767" fillId="763" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="769" fillId="765" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="771" fillId="767" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="773" fillId="769" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="775" fillId="771" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="777" fillId="773" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="779" fillId="775" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="781" fillId="777" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="783" fillId="779" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="785" fillId="781" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="787" fillId="783" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="789" fillId="785" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="791" fillId="787" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="793" fillId="789" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="795" fillId="791" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="797" fillId="793" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="795" borderId="799" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -8363,8 +9119,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="380" t="s">
-        <v>401</v>
+      <c r="B2" s="416" t="s">
+        <v>437</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -8401,8 +9157,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="376" t="s">
-        <v>397</v>
+      <c r="B3" s="410" t="s">
+        <v>431</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -8449,8 +9205,8 @@
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="334" t="s">
-        <v>355</v>
+      <c r="B4" s="412" t="s">
+        <v>433</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -8495,8 +9251,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="377" t="s">
-        <v>398</v>
+      <c r="B5" s="405" t="s">
+        <v>426</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>
@@ -8551,8 +9307,8 @@
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="335" t="s">
-        <v>356</v>
+      <c r="B6" s="413" t="s">
+        <v>434</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -8597,8 +9353,8 @@
       <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="336" t="s">
-        <v>357</v>
+      <c r="B7" s="414" t="s">
+        <v>435</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>17</v>

--- a/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="439">
   <si>
     <t>Other</t>
   </si>
@@ -1339,6 +1339,9 @@
   </si>
   <si>
     <t>prodoilI</t>
+  </si>
+  <si>
+    <t>prodXcdn</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="796">
+  <fills count="798">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5346,8 +5349,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="800">
+  <borders count="802">
     <border>
       <left/>
       <right/>
@@ -8300,11 +8313,18 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="417">
+  <cellXfs count="418">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -8749,7 +8769,8 @@
     <xf applyBorder="true" applyFill="true" borderId="793" fillId="789" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="795" fillId="791" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="797" fillId="793" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="795" borderId="799" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="799" fillId="795" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="797" borderId="801" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -9119,8 +9140,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="416" t="s">
-        <v>437</v>
+      <c r="B2" s="417" t="s">
+        <v>438</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>

--- a/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="448">
   <si>
     <t>Other</t>
   </si>
@@ -1342,6 +1342,33 @@
   </si>
   <si>
     <t>prodXcdn</t>
+  </si>
+  <si>
+    <t>prodTzJf</t>
+  </si>
+  <si>
+    <t>prodCAFh</t>
+  </si>
+  <si>
+    <t>prodmDon</t>
+  </si>
+  <si>
+    <t>prodzINb</t>
+  </si>
+  <si>
+    <t>prodrpbv</t>
+  </si>
+  <si>
+    <t>prodqGOY</t>
+  </si>
+  <si>
+    <t>prodcUZX</t>
+  </si>
+  <si>
+    <t>prodQyhi</t>
+  </si>
+  <si>
+    <t>prodAqci</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="798">
+  <fills count="816">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5359,8 +5386,98 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="802">
+  <borders count="820">
     <border>
       <left/>
       <right/>
@@ -8320,11 +8437,74 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="418">
+  <cellXfs count="427">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -8770,7 +8950,16 @@
     <xf applyBorder="true" applyFill="true" borderId="795" fillId="791" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="797" fillId="793" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="799" fillId="795" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="797" borderId="801" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="801" fillId="797" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="803" fillId="799" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="805" fillId="801" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="807" fillId="803" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="809" fillId="805" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="811" fillId="807" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="813" fillId="809" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="815" fillId="811" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="817" fillId="813" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="815" borderId="819" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -9140,8 +9329,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="417" t="s">
-        <v>438</v>
+      <c r="B2" s="426" t="s">
+        <v>447</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -9178,8 +9367,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="410" t="s">
-        <v>431</v>
+      <c r="B3" s="422" t="s">
+        <v>443</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -9272,8 +9461,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="405" t="s">
-        <v>426</v>
+      <c r="B5" s="423" t="s">
+        <v>444</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>

--- a/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="457">
   <si>
     <t>Other</t>
   </si>
@@ -1369,6 +1369,33 @@
   </si>
   <si>
     <t>prodAqci</t>
+  </si>
+  <si>
+    <t>prodLlpT</t>
+  </si>
+  <si>
+    <t>prodHpow</t>
+  </si>
+  <si>
+    <t>prodPsNL</t>
+  </si>
+  <si>
+    <t>prodsEkE</t>
+  </si>
+  <si>
+    <t>prodZSlL</t>
+  </si>
+  <si>
+    <t>produpvU</t>
+  </si>
+  <si>
+    <t>prodWYUH</t>
+  </si>
+  <si>
+    <t>prodxYkB</t>
+  </si>
+  <si>
+    <t>proddZjB</t>
   </si>
 </sst>
 </file>
@@ -1399,7 +1426,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="816">
+  <fills count="834">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5476,8 +5503,98 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="820">
+  <borders count="838">
     <border>
       <left/>
       <right/>
@@ -8500,11 +8617,74 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="427">
+  <cellXfs count="436">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -8959,7 +9139,16 @@
     <xf applyBorder="true" applyFill="true" borderId="813" fillId="809" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="815" fillId="811" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="817" fillId="813" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="815" borderId="819" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="819" fillId="815" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="821" fillId="817" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="823" fillId="819" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="825" fillId="821" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="827" fillId="823" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="829" fillId="825" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="831" fillId="827" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="833" fillId="829" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="835" fillId="831" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="833" borderId="837" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -9329,8 +9518,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="426" t="s">
-        <v>447</v>
+      <c r="B2" s="434" t="s">
+        <v>455</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -9367,8 +9556,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="422" t="s">
-        <v>443</v>
+      <c r="B3" s="435" t="s">
+        <v>456</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -9461,8 +9650,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="423" t="s">
-        <v>444</v>
+      <c r="B5" s="432" t="s">
+        <v>453</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>

--- a/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/qa/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="458">
   <si>
     <t>Other</t>
   </si>
@@ -1396,6 +1396,9 @@
   </si>
   <si>
     <t>proddZjB</t>
+  </si>
+  <si>
+    <t>prodearC</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="834">
+  <fills count="836">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5593,8 +5596,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="838">
+  <borders count="840">
     <border>
       <left/>
       <right/>
@@ -8680,11 +8693,18 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="436">
+  <cellXfs count="437">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -9148,7 +9168,8 @@
     <xf applyBorder="true" applyFill="true" borderId="831" fillId="827" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="833" fillId="829" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="835" fillId="831" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="833" borderId="837" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="837" fillId="833" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="835" borderId="839" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -9556,8 +9577,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="435" t="s">
-        <v>456</v>
+      <c r="B3" s="436" t="s">
+        <v>457</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
